--- a/Project supporting Artifacts/Evaluation/cognitive_walkthrough/phase_3.xlsx
+++ b/Project supporting Artifacts/Evaluation/cognitive_walkthrough/phase_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanmccrossan/group_project/TUD-Group-Project/Project supporting Artifacts/Evaluation/cognitive_walkthrough/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13196DE3-29AD-BA47-AF5F-BEDA28B8B78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E5E63F-2127-3245-86EE-3469FE4104D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9E940733-D15D-444C-A26B-A567DC9AD4B9}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="15">
-  <si>
-    <t>Task 1 - Upload the data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="18">
   <si>
     <t>User:</t>
   </si>
@@ -59,21 +56,6 @@
     <t xml:space="preserve">Feedback from user: </t>
   </si>
   <si>
-    <t>Task 1 - Which column has the most missing values?</t>
-  </si>
-  <si>
-    <t>Task 3 - Check the outliers in your data</t>
-  </si>
-  <si>
-    <t>Task 4 - Determine the quality of your data</t>
-  </si>
-  <si>
-    <t>Task 5 - Clean your data</t>
-  </si>
-  <si>
-    <t>Task 6 - Export the data</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -81,6 +63,33 @@
   </si>
   <si>
     <t>User 4</t>
+  </si>
+  <si>
+    <t>Task 1 - Register and Login</t>
+  </si>
+  <si>
+    <t>Task 3 - Navigate to data preview page and determine whether your data uploaded correctly</t>
+  </si>
+  <si>
+    <t>Task 2 - Data Upload</t>
+  </si>
+  <si>
+    <t>Task 4 - Determine which column has the most missing values</t>
+  </si>
+  <si>
+    <t>Task 5 - Determine the quality of your data</t>
+  </si>
+  <si>
+    <t>Task 6 - Determine if there are any correlations within the data</t>
+  </si>
+  <si>
+    <t>Task 7 - Remove duplicates</t>
+  </si>
+  <si>
+    <t>Task 8 - Clean your data based on the information you have.</t>
+  </si>
+  <si>
+    <t>Task 9 - Export the data</t>
   </si>
 </sst>
 </file>
@@ -462,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233B0C84-AB2A-1742-9CD1-4F33E13FF503}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,7 +487,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -487,75 +496,75 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -564,75 +573,82 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -641,75 +657,75 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -718,75 +734,75 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -795,75 +811,75 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -872,80 +888,314 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A49:E49"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project supporting Artifacts/Evaluation/cognitive_walkthrough/phase_3.xlsx
+++ b/Project supporting Artifacts/Evaluation/cognitive_walkthrough/phase_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanmccrossan/group_project/TUD-Group-Project/Project supporting Artifacts/Evaluation/cognitive_walkthrough/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E5E63F-2127-3245-86EE-3469FE4104D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55193A9C-D054-AB41-9CD5-E726124529AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9E940733-D15D-444C-A26B-A567DC9AD4B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="24">
   <si>
     <t>User:</t>
   </si>
@@ -74,22 +74,40 @@
     <t>Task 2 - Data Upload</t>
   </si>
   <si>
-    <t>Task 4 - Determine which column has the most missing values</t>
-  </si>
-  <si>
-    <t>Task 5 - Determine the quality of your data</t>
-  </si>
-  <si>
-    <t>Task 6 - Determine if there are any correlations within the data</t>
-  </si>
-  <si>
-    <t>Task 7 - Remove duplicates</t>
-  </si>
-  <si>
-    <t>Task 8 - Clean your data based on the information you have.</t>
-  </si>
-  <si>
-    <t>Task 9 - Export the data</t>
+    <t>Task 4 - Pivot your data and export in data preview.</t>
+  </si>
+  <si>
+    <t>Task 5 - Determine which column has the most missing values</t>
+  </si>
+  <si>
+    <t>Task 6 - Determine the quality of your data</t>
+  </si>
+  <si>
+    <t>Task 7 - Determine if there are any correlations within the data</t>
+  </si>
+  <si>
+    <t>Task 8 - Remove duplicates</t>
+  </si>
+  <si>
+    <t>Task 9 - Clean your data based on the information you have.</t>
+  </si>
+  <si>
+    <t>Task 10 - Export the data</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Task 10 - Forget password</t>
+  </si>
+  <si>
+    <t>User 5</t>
+  </si>
+  <si>
+    <t>User 6</t>
   </si>
 </sst>
 </file>
@@ -119,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -142,11 +160,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +211,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,21 +535,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233B0C84-AB2A-1742-9CD1-4F33E13FF503}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="3" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -493,8 +557,10 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -510,8 +576,14 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -524,11 +596,13 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -541,249 +615,293 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -796,20 +914,33 @@
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -825,8 +956,14 @@
       <c r="E26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -839,11 +976,13 @@
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -856,242 +995,261 @@
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="B44" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -1104,20 +1262,24 @@
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
@@ -1133,8 +1295,14 @@
       <c r="E50" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
@@ -1147,11 +1315,13 @@
       <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -1164,38 +1334,518 @@
       <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A37:E37"/>
+  <mergeCells count="11">
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A57:G57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project supporting Artifacts/Evaluation/cognitive_walkthrough/phase_3.xlsx
+++ b/Project supporting Artifacts/Evaluation/cognitive_walkthrough/phase_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanmccrossan/group_project/TUD-Group-Project/Project supporting Artifacts/Evaluation/cognitive_walkthrough/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55193A9C-D054-AB41-9CD5-E726124529AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5B84D9-F270-AE48-822D-0F48801DF3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9E940733-D15D-444C-A26B-A567DC9AD4B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="106">
   <si>
     <t>User:</t>
   </si>
@@ -101,13 +101,259 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>Task 10 - Forget password</t>
-  </si>
-  <si>
     <t>User 5</t>
   </si>
   <si>
     <t>User 6</t>
+  </si>
+  <si>
+    <t>Found the register easily. Went to email. Kept homepage open. Waiting for email.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy to sign up, one time password. </t>
+  </si>
+  <si>
+    <t>Instead of sign up it said sign in. First intuition was to say sign up. Some spot to sign up. New login password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutral minor changes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looking for data. Stopped before upload required guidance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty quick to choose, had option to cancel wide array of options. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy to upload. Upload button a bit confusing.  </t>
+  </si>
+  <si>
+    <t>Data could be uploaded automatically. No feedback for upload.</t>
+  </si>
+  <si>
+    <t>Easy enough no feedback</t>
+  </si>
+  <si>
+    <t>Easy to navigate</t>
+  </si>
+  <si>
+    <t>See it in a key format. Very clean.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needed to know what the pivot mode was. Needs a lot of help navigating this.Getting lost in the export. </t>
+  </si>
+  <si>
+    <t>Challenging for new users. Hard to find excel button straight away</t>
+  </si>
+  <si>
+    <t>Didn’t directly explore data quality tab.</t>
+  </si>
+  <si>
+    <t>Easy to find</t>
+  </si>
+  <si>
+    <t>Overall good.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the wording of machine learning.  Did not find the expand button. </t>
+  </si>
+  <si>
+    <t>Overall positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenr to outlier chart. No correlations. </t>
+  </si>
+  <si>
+    <t>Pretty straight forward. Pretty helpful.</t>
+  </si>
+  <si>
+    <t>Legend is a bit wrong ahead. Negative values under the graph.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data exploration neutral. Data quality was good. Positive about data profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went straight to column cleaning.  Needed assistance. </t>
+  </si>
+  <si>
+    <t>Easy to do once given given.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn’t know about data sections. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undo button for individual tasks. </t>
+  </si>
+  <si>
+    <t>Normalising and removing outliers. Needed to guidance to save.</t>
+  </si>
+  <si>
+    <t>Pretty intuitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn’t know how to press enter, no feedback didn’t know to save. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between neutral and positive. </t>
+  </si>
+  <si>
+    <t>Needed reassurance that cleaning was running. Cleaning rules did not clear.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything was straight forward. Duplicate rules. </t>
+  </si>
+  <si>
+    <t>Didn’t work for Nishant. Some conditional errors to stop you from doing stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutral to positive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going through all the steps well. Could not go back to login page. </t>
+  </si>
+  <si>
+    <t>After redeploy</t>
+  </si>
+  <si>
+    <t>Data Polish should bring back to the homepage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall experience. Should be able to change password. Ignored the link. </t>
+  </si>
+  <si>
+    <t>Task 11 - Forget password</t>
+  </si>
+  <si>
+    <t>Pivot mode was useful to get some minor insights. Confused by pivot mode as not an excel user. Easy to download once you figure out the right click. Page is clean. Challenging for new user</t>
+  </si>
+  <si>
+    <t>Went straigh to login. Login button not working.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got email very quickly. Clickling the link brought right to the page. The UI for landing page was quite easy to naviate. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two tabs had to be opened to create the account should all be on the home page. Login button not working. Choice of wording not great "Get started". Create account should be an option. </t>
+  </si>
+  <si>
+    <t>3 out of 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looking for a dataset. Tried to upload a large dataset. </t>
+  </si>
+  <si>
+    <t>Just have upload and give feedback.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple to find. Like that the upload and notification is faded out. Like the steps at the top. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One button to upload. File size could be bigger. </t>
+  </si>
+  <si>
+    <t>No notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really likes the layout, apple style layout quite use to it.  Good colour consistency with the buttons. </t>
+  </si>
+  <si>
+    <t>Overall positive 5 out of 5</t>
+  </si>
+  <si>
+    <t>Working hard to pivot the data. Not sure what bracket count means. Struggling with export.  required a hint. Had to right click the button given a hint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be a button for export. Right clicking on the data is not something that he would have thought of. Right clicking on a single column not something he would expect result in the whole data. It should be a button. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likes the right click options and all the stuff. The you can modify and play with the data. </t>
+  </si>
+  <si>
+    <t>5 for playing around 1 for export</t>
+  </si>
+  <si>
+    <t>No missing values.</t>
+  </si>
+  <si>
+    <t>It wasn’t hard to find. Like the meta data. Missing valyes in data quality.</t>
+  </si>
+  <si>
+    <t>No negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy with everything. Ignoring the radar chart. Hasn’t selected the help text. </t>
+  </si>
+  <si>
+    <t>Wouldn’t know what regex is if they were a new user. Doesn’t know what whitespace means.</t>
+  </si>
+  <si>
+    <t>More in depth information. It's ok but a bit more in depth like what does regex mean.  4 out of 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph does not pre populate users are struggling with selecting the data. Not entirely sure what the x and y axis represent. Has played around with all the charts not sure if he knows what coerrelations mean. In the tool tip. </t>
+  </si>
+  <si>
+    <t>It works. Pretty smooth given all the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing was happening at the beginning. Didn’t imediatley the correlation chart. Highlight correlation in bold. </t>
+  </si>
+  <si>
+    <t>Missing the dataset actions button. Finding his way going to cleaning option for columns. Save rules. Point out</t>
+  </si>
+  <si>
+    <t>Once found easy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard to find dataset actions not right. All the coloumns. Would like option to remove duplicates in columns. Naming conventions of buttons. </t>
+  </si>
+  <si>
+    <t>Did quick</t>
+  </si>
+  <si>
+    <t>Intuitive where to find it. Catergorised in the groups,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not sure whether it keeps or remoces. Add a tooltip to hover of text box that shows users. No feedback. Help text in the drop down box not the question mark. </t>
+  </si>
+  <si>
+    <t>Super easy</t>
+  </si>
+  <si>
+    <t>Super easy. Super simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loading bar to say when you go next any sort of feedback. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profile and export liked the charts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The terminology </t>
+  </si>
+  <si>
+    <t>Regex and standard deviation.</t>
+  </si>
+  <si>
+    <t>4 a lot of functionality but less buttons are needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a while to wait for the application to send him the password. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Took a while, worried that it was broken </t>
+  </si>
+  <si>
+    <t>Would you use this in your data workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If file size was bigger then you can use it.. Quicker than using python Would use it to explore data. Problem is with the file size. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looking for a rergression line. 4. Filter your whole dataset. </t>
   </si>
 </sst>
 </file>
@@ -137,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -197,11 +443,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,6 +486,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,21 +810,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233B0C84-AB2A-1742-9CD1-4F33E13FF503}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D48" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -559,8 +834,14 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -577,21 +858,30 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+      <c r="B3" s="2">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2">
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -602,15 +892,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -621,15 +911,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -640,15 +930,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -659,15 +949,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -678,7 +968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -689,7 +979,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,21 +996,21 @@
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
+      <c r="B11" s="2">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2">
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -731,15 +1021,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -750,15 +1040,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -769,15 +1059,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -788,15 +1078,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -835,21 +1125,21 @@
         <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
+      <c r="B19" s="2">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -865,10 +1155,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -883,8 +1173,12 @@
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -906,10 +1200,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -957,21 +1251,21 @@
         <v>8</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
+      <c r="B27" s="2">
+        <v>89</v>
+      </c>
+      <c r="C27" s="2">
+        <v>218</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -987,10 +1281,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -1005,8 +1299,12 @@
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1016,8 +1314,12 @@
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1031,7 +1333,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1070,21 +1372,21 @@
         <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
+      <c r="B35" s="2">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2">
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -1100,10 +1402,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -1118,8 +1420,12 @@
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1130,7 +1436,9 @@
         <v>20</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1141,10 +1449,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1183,21 +1491,21 @@
         <v>8</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>6</v>
+      <c r="B43" s="2">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2">
+        <v>60</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -1213,10 +1521,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -1232,7 +1537,9 @@
         <v>19</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1243,7 +1550,9 @@
         <v>20</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1254,10 +1563,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1268,7 +1577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
@@ -1279,7 +1588,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
@@ -1296,21 +1605,21 @@
         <v>8</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>6</v>
+      <c r="B51" s="2">
+        <v>31</v>
+      </c>
+      <c r="C51" s="2">
+        <v>201</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
@@ -1321,15 +1630,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -1339,30 +1648,41 @@
       <c r="G52" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
@@ -1370,7 +1690,7 @@
         <v>6</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -1381,7 +1701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -1392,7 +1712,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>0</v>
       </c>
@@ -1409,21 +1729,21 @@
         <v>8</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>6</v>
+      <c r="B59" s="2">
+        <v>41</v>
+      </c>
+      <c r="C59" s="2">
+        <v>104</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
@@ -1434,15 +1754,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -1453,37 +1773,45 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
@@ -1522,21 +1850,21 @@
         <v>8</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>6</v>
+      <c r="B67" s="2">
+        <v>68</v>
+      </c>
+      <c r="C67" s="2">
+        <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
@@ -1552,10 +1880,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
@@ -1570,8 +1898,12 @@
       <c r="A69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -1581,8 +1913,12 @@
       <c r="A70" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -1593,10 +1929,10 @@
         <v>5</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>6</v>
@@ -1635,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -1646,10 +1982,10 @@
         <v>3</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="C75" s="2">
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>6</v>
@@ -1665,10 +2001,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
@@ -1683,7 +2019,9 @@
       <c r="A77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="2"/>
+      <c r="B77" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -1694,7 +2032,9 @@
       <c r="A78" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -1706,10 +2046,10 @@
         <v>5</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>6</v>
@@ -1722,7 +2062,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1748,21 +2088,21 @@
         <v>8</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>6</v>
+      <c r="B83" s="2">
+        <v>104</v>
+      </c>
+      <c r="C83" s="2">
+        <v>88</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>6</v>
@@ -1778,10 +2118,10 @@
         <v>4</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>6</v>
@@ -1796,8 +2136,12 @@
       <c r="A85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -1807,8 +2151,12 @@
       <c r="A86" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -1819,10 +2167,10 @@
         <v>5</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="C87" s="2">
+        <v>4</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>6</v>
@@ -1831,6 +2179,14 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Project supporting Artifacts/Evaluation/cognitive_walkthrough/phase_3.xlsx
+++ b/Project supporting Artifacts/Evaluation/cognitive_walkthrough/phase_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanmccrossan/group_project/TUD-Group-Project/Project supporting Artifacts/Evaluation/cognitive_walkthrough/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5B84D9-F270-AE48-822D-0F48801DF3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F95A04-E527-C248-83FB-736317C34D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9E940733-D15D-444C-A26B-A567DC9AD4B9}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,14 +487,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,14 +816,14 @@
   <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="A1:XFD1048576"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="6" width="11" customWidth="1"/>
+    <col min="2" max="3" width="37.6640625" style="9" customWidth="1"/>
+    <col min="4" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -841,14 +844,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -863,13 +866,13 @@
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>100</v>
       </c>
     </row>
@@ -877,10 +880,10 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>74</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -892,14 +895,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -911,14 +914,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -930,14 +933,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -949,11 +952,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -979,14 +982,14 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1006,10 +1009,10 @@
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>50</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1021,14 +1024,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1040,14 +1043,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1059,14 +1062,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1078,14 +1081,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1108,14 +1111,14 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1135,10 +1138,10 @@
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>9</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1154,10 +1157,10 @@
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1169,14 +1172,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D21" s="2"/>
@@ -1188,21 +1191,21 @@
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1216,8 +1219,8 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1234,14 +1237,14 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1261,10 +1264,10 @@
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>89</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>218</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1276,14 +1279,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1295,14 +1298,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D29" s="2"/>
@@ -1310,14 +1313,14 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D30" s="2"/>
@@ -1325,14 +1328,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1355,14 +1358,14 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1382,10 +1385,10 @@
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>19</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1397,14 +1400,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1416,14 +1419,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="2"/>
@@ -1431,12 +1434,12 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="2"/>
@@ -1444,14 +1447,14 @@
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1474,14 +1477,14 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -1501,10 +1504,10 @@
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>20</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="3">
         <v>60</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -1516,11 +1519,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -1532,12 +1535,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D45" s="2"/>
@@ -1545,12 +1548,12 @@
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="2"/>
@@ -1558,14 +1561,14 @@
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1588,14 +1591,14 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -1615,10 +1618,10 @@
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>31</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>201</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -1630,14 +1633,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -1652,14 +1655,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D53" s="2"/>
@@ -1667,14 +1670,14 @@
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D54" s="2"/>
@@ -1682,14 +1685,14 @@
       <c r="F54" s="2"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -1712,14 +1715,14 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -1739,10 +1742,10 @@
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>41</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="3">
         <v>104</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -1754,14 +1757,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -1773,14 +1776,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D61" s="2"/>
@@ -1788,14 +1791,14 @@
       <c r="F61" s="2"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="2"/>
@@ -1803,14 +1806,14 @@
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="3">
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -1833,14 +1836,14 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -1860,10 +1863,10 @@
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <v>68</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="3">
         <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -1875,14 +1878,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -1894,14 +1897,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D69" s="2"/>
@@ -1909,14 +1912,14 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D70" s="2"/>
@@ -1924,14 +1927,14 @@
       <c r="F70" s="2"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="3">
         <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -1954,14 +1957,14 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -1977,14 +1980,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="3">
         <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -1996,14 +1999,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -2015,40 +2018,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" s="3"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="2"/>
+      <c r="C78" s="3"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -2071,14 +2074,14 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -2098,10 +2101,10 @@
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="3">
         <v>104</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="3">
         <v>88</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -2113,14 +2116,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -2132,14 +2135,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D85" s="2"/>
@@ -2147,14 +2150,14 @@
       <c r="F85" s="2"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D86" s="2"/>
@@ -2162,14 +2165,14 @@
       <c r="F86" s="2"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="3">
         <v>4</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -2181,11 +2184,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+    <row r="92" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B92" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="9" t="s">
         <v>104</v>
       </c>
     </row>

--- a/Project supporting Artifacts/Evaluation/cognitive_walkthrough/phase_3.xlsx
+++ b/Project supporting Artifacts/Evaluation/cognitive_walkthrough/phase_3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanmccrossan/group_project/TUD-Group-Project/Project supporting Artifacts/Evaluation/cognitive_walkthrough/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F95A04-E527-C248-83FB-736317C34D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F00B6F0-B116-E94B-9F6B-1EF803188285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9E940733-D15D-444C-A26B-A567DC9AD4B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="clean evaluation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="162">
   <si>
     <t>User:</t>
   </si>
@@ -354,6 +355,174 @@
   </si>
   <si>
     <t xml:space="preserve">Looking for a rergression line. 4. Filter your whole dataset. </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Found the register form easily</t>
+  </si>
+  <si>
+    <t>Waited for email too long, thought there was an issue.</t>
+  </si>
+  <si>
+    <t>No assistance</t>
+  </si>
+  <si>
+    <t>Intuitive</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>App says sign in not sign uo</t>
+  </si>
+  <si>
+    <t>General Feedback</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Clicked wrong button</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Should all be on one page.</t>
+  </si>
+  <si>
+    <t>Create account not "get started should be the wording"</t>
+  </si>
+  <si>
+    <t>Took time looking for data.</t>
+  </si>
+  <si>
+    <t>Stopped after choose data action.</t>
+  </si>
+  <si>
+    <t>Required guidance</t>
+  </si>
+  <si>
+    <t>Tried to upload a large dataset initially</t>
+  </si>
+  <si>
+    <t>Liked option to cancel</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Like that the buttons were faded</t>
+  </si>
+  <si>
+    <t>Likes the bar at the top letting the user what stage of the workflow they are at</t>
+  </si>
+  <si>
+    <t>Data should upload after choose</t>
+  </si>
+  <si>
+    <t>Need feedback from the system</t>
+  </si>
+  <si>
+    <t>Slight negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intuitive </t>
+  </si>
+  <si>
+    <t>Really likes the apple style layout</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>General feedback</t>
+  </si>
+  <si>
+    <t>Really positive</t>
+  </si>
+  <si>
+    <t>Didn't understand pivot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs assistance to show where the pivot functionlality was </t>
+  </si>
+  <si>
+    <t>Needs assistance in getting to export</t>
+  </si>
+  <si>
+    <t>Working hard to pivot the data</t>
+  </si>
+  <si>
+    <t>Still cant find, received assistance</t>
+  </si>
+  <si>
+    <t>Cant find export. Requires hint. Thought it was next page</t>
+  </si>
+  <si>
+    <t>Pivot mode was useful</t>
+  </si>
+  <si>
+    <t>Page is clean</t>
+  </si>
+  <si>
+    <t>Easy to download once you know</t>
+  </si>
+  <si>
+    <t>Loves all the options</t>
+  </si>
+  <si>
+    <t>Likes pivot</t>
+  </si>
+  <si>
+    <t>Likes all the functionality</t>
+  </si>
+  <si>
+    <t>Pivot good</t>
+  </si>
+  <si>
+    <t>Pivot great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export  not intuitive </t>
+  </si>
+  <si>
+    <t>Score pivot</t>
+  </si>
+  <si>
+    <t>Score export</t>
+  </si>
+  <si>
+    <t>Didn’t directly go to data quality tab</t>
+  </si>
+  <si>
+    <t>No missing values in user data</t>
+  </si>
+  <si>
+    <t>Likes all the charts</t>
+  </si>
+  <si>
+    <t>Doesn’t understand the reasoning</t>
+  </si>
+  <si>
+    <t>Assistance to help text</t>
+  </si>
+  <si>
+    <t>Trusted the score little exploration.</t>
+  </si>
+  <si>
+    <t>Looked at help text.</t>
+  </si>
+  <si>
+    <t>Some of the terms in the help text are a bit advanced (regex)</t>
   </si>
 </sst>
 </file>
@@ -369,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,8 +551,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -463,11 +638,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,6 +753,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233B0C84-AB2A-1742-9CD1-4F33E13FF503}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1172,7 +1515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2208,4 +2551,832 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855E2554-302F-214C-938D-BB89A2243CD2}">
+  <dimension ref="A1:G69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18">
+        <v>74</v>
+      </c>
+      <c r="C3" s="21">
+        <v>95</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="36"/>
+      <c r="B5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="26">
+        <v>3</v>
+      </c>
+      <c r="C11" s="26">
+        <v>3</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>50</v>
+      </c>
+      <c r="C17" s="3">
+        <v>95</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="34"/>
+      <c r="B22" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="22">
+        <v>2</v>
+      </c>
+      <c r="C27" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="22">
+        <v>5</v>
+      </c>
+      <c r="C36" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="3">
+        <v>89</v>
+      </c>
+      <c r="C40" s="3">
+        <v>218</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="40"/>
+      <c r="B42" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="42"/>
+      <c r="B43" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="34"/>
+      <c r="B45" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="35"/>
+      <c r="B46" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="43"/>
+      <c r="B48" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="22">
+        <v>5</v>
+      </c>
+      <c r="C49" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="22">
+        <v>1</v>
+      </c>
+      <c r="C50" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="11">
+        <v>19</v>
+      </c>
+      <c r="C54" s="11">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="35"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="22">
+        <v>5</v>
+      </c>
+      <c r="C61" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="3">
+        <v>20</v>
+      </c>
+      <c r="C65" s="3">
+        <v>60</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="C69" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A18:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project supporting Artifacts/Evaluation/cognitive_walkthrough/phase_3.xlsx
+++ b/Project supporting Artifacts/Evaluation/cognitive_walkthrough/phase_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanmccrossan/group_project/TUD-Group-Project/Project supporting Artifacts/Evaluation/cognitive_walkthrough/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F00B6F0-B116-E94B-9F6B-1EF803188285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB3032-3B0A-8F4C-9AF4-B8EF42B3F737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{9E940733-D15D-444C-A26B-A567DC9AD4B9}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{9E940733-D15D-444C-A26B-A567DC9AD4B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="162">
   <si>
     <t>User:</t>
   </si>
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233B0C84-AB2A-1742-9CD1-4F33E13FF503}">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B46"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2555,10 +2555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855E2554-302F-214C-938D-BB89A2243CD2}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3353,17 +3353,101 @@
         <v>158</v>
       </c>
     </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="69" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>112</v>
+      </c>
       <c r="C69" s="9" t="s">
         <v>161</v>
       </c>
     </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="22">
+        <v>4</v>
+      </c>
+      <c r="C71" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="3">
+        <v>31</v>
+      </c>
+      <c r="C75" s="3">
+        <v>201</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A73:G73"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A29:G29"/>
